--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_64ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_64ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3752,28 +3752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>373.2162289733253</v>
+        <v>480.8216321095954</v>
       </c>
       <c r="AB2" t="n">
-        <v>510.6509096192758</v>
+        <v>657.8813694056654</v>
       </c>
       <c r="AC2" t="n">
-        <v>461.9151035082643</v>
+        <v>595.0940948518889</v>
       </c>
       <c r="AD2" t="n">
-        <v>373216.2289733253</v>
+        <v>480821.6321095955</v>
       </c>
       <c r="AE2" t="n">
-        <v>510650.9096192758</v>
+        <v>657881.3694056654</v>
       </c>
       <c r="AF2" t="n">
         <v>7.885423922072814e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.90234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>461915.1035082644</v>
+        <v>595094.0948518889</v>
       </c>
     </row>
     <row r="3">
@@ -3858,28 +3858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>221.911511090181</v>
+        <v>280.6094843233502</v>
       </c>
       <c r="AB3" t="n">
-        <v>303.6291195183672</v>
+        <v>383.9422760679476</v>
       </c>
       <c r="AC3" t="n">
-        <v>274.6511824977696</v>
+        <v>347.2993641063908</v>
       </c>
       <c r="AD3" t="n">
-        <v>221911.511090181</v>
+        <v>280609.4843233502</v>
       </c>
       <c r="AE3" t="n">
-        <v>303629.1195183672</v>
+        <v>383942.2760679476</v>
       </c>
       <c r="AF3" t="n">
         <v>1.202280645747939e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.05338541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>274651.1824977697</v>
+        <v>347299.3641063908</v>
       </c>
     </row>
     <row r="4">
@@ -3964,28 +3964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>186.6250690029262</v>
+        <v>245.3561966250155</v>
       </c>
       <c r="AB4" t="n">
-        <v>255.3486527266528</v>
+        <v>335.7071725736397</v>
       </c>
       <c r="AC4" t="n">
-        <v>230.9785356945804</v>
+        <v>303.6677511912874</v>
       </c>
       <c r="AD4" t="n">
-        <v>186625.0690029262</v>
+        <v>245356.1966250155</v>
       </c>
       <c r="AE4" t="n">
-        <v>255348.6527266528</v>
+        <v>335707.1725736397</v>
       </c>
       <c r="AF4" t="n">
         <v>1.35271338680922e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.6015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>230978.5356945804</v>
+        <v>303667.7511912874</v>
       </c>
     </row>
     <row r="5">
@@ -4070,28 +4070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>169.7309950763227</v>
+        <v>228.4279572796312</v>
       </c>
       <c r="AB5" t="n">
-        <v>232.2334354663455</v>
+        <v>312.5452086800847</v>
       </c>
       <c r="AC5" t="n">
-        <v>210.0694023271783</v>
+        <v>282.7163326237054</v>
       </c>
       <c r="AD5" t="n">
-        <v>169730.9950763227</v>
+        <v>228427.9572796312</v>
       </c>
       <c r="AE5" t="n">
-        <v>232233.4354663455</v>
+        <v>312545.2086800847</v>
       </c>
       <c r="AF5" t="n">
         <v>1.433619200751793e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.95052083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>210069.4023271783</v>
+        <v>282716.3326237054</v>
       </c>
     </row>
     <row r="6">
@@ -4176,28 +4176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>166.0455473156933</v>
+        <v>224.7425095190018</v>
       </c>
       <c r="AB6" t="n">
-        <v>227.1908432497747</v>
+        <v>307.5026164635138</v>
       </c>
       <c r="AC6" t="n">
-        <v>205.5080680344328</v>
+        <v>278.1549983309598</v>
       </c>
       <c r="AD6" t="n">
-        <v>166045.5473156933</v>
+        <v>224742.5095190018</v>
       </c>
       <c r="AE6" t="n">
-        <v>227190.8432497747</v>
+        <v>307502.6164635139</v>
       </c>
       <c r="AF6" t="n">
         <v>1.480050844867823e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.60546875</v>
       </c>
       <c r="AH6" t="n">
-        <v>205508.0680344328</v>
+        <v>278154.9983309598</v>
       </c>
     </row>
     <row r="7">
@@ -4282,28 +4282,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>162.9341586363479</v>
+        <v>211.8094451803845</v>
       </c>
       <c r="AB7" t="n">
-        <v>222.9337039939155</v>
+        <v>289.8070272688965</v>
       </c>
       <c r="AC7" t="n">
-        <v>201.657224174219</v>
+        <v>262.1482513331558</v>
       </c>
       <c r="AD7" t="n">
-        <v>162934.1586363479</v>
+        <v>211809.4451803845</v>
       </c>
       <c r="AE7" t="n">
-        <v>222933.7039939156</v>
+        <v>289807.0272688965</v>
       </c>
       <c r="AF7" t="n">
         <v>1.517008119234321e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.34505208333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>201657.224174219</v>
+        <v>262148.2513331558</v>
       </c>
     </row>
     <row r="8">
@@ -4388,28 +4388,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>160.91496316925</v>
+        <v>209.7902497132867</v>
       </c>
       <c r="AB8" t="n">
-        <v>220.1709516752167</v>
+        <v>287.0442749501977</v>
       </c>
       <c r="AC8" t="n">
-        <v>199.1581450592686</v>
+        <v>259.6491722182054</v>
       </c>
       <c r="AD8" t="n">
-        <v>160914.96316925</v>
+        <v>209790.2497132867</v>
       </c>
       <c r="AE8" t="n">
-        <v>220170.9516752167</v>
+        <v>287044.2749501977</v>
       </c>
       <c r="AF8" t="n">
         <v>1.538705149195082e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.20182291666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>199158.1450592686</v>
+        <v>259649.1722182054</v>
       </c>
     </row>
     <row r="9">
@@ -4494,28 +4494,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>159.346620580234</v>
+        <v>208.2219071242706</v>
       </c>
       <c r="AB9" t="n">
-        <v>218.0250761545342</v>
+        <v>284.8983994295151</v>
       </c>
       <c r="AC9" t="n">
-        <v>197.2170688865241</v>
+        <v>257.7080960454609</v>
       </c>
       <c r="AD9" t="n">
-        <v>159346.620580234</v>
+        <v>208221.9071242706</v>
       </c>
       <c r="AE9" t="n">
-        <v>218025.0761545342</v>
+        <v>284898.3994295151</v>
       </c>
       <c r="AF9" t="n">
         <v>1.553218051457725e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.10416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>197217.0688865242</v>
+        <v>257708.0960454609</v>
       </c>
     </row>
     <row r="10">
@@ -4600,28 +4600,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>157.7517774888144</v>
+        <v>206.627064032851</v>
       </c>
       <c r="AB10" t="n">
-        <v>215.8429414773434</v>
+        <v>282.7162647523244</v>
       </c>
       <c r="AC10" t="n">
-        <v>195.2431940802786</v>
+        <v>255.7342212392153</v>
       </c>
       <c r="AD10" t="n">
-        <v>157751.7774888143</v>
+        <v>206627.064032851</v>
       </c>
       <c r="AE10" t="n">
-        <v>215842.9414773434</v>
+        <v>282716.2647523244</v>
       </c>
       <c r="AF10" t="n">
         <v>1.568381864619191e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.00651041666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>195243.1940802786</v>
+        <v>255734.2212392153</v>
       </c>
     </row>
     <row r="11">
@@ -4706,28 +4706,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>146.0722340847047</v>
+        <v>204.7350308692324</v>
       </c>
       <c r="AB11" t="n">
-        <v>199.8624749267593</v>
+        <v>280.1275015072506</v>
       </c>
       <c r="AC11" t="n">
-        <v>180.7878808285514</v>
+        <v>253.3925259248985</v>
       </c>
       <c r="AD11" t="n">
-        <v>146072.2340847047</v>
+        <v>204735.0308692324</v>
       </c>
       <c r="AE11" t="n">
-        <v>199862.4749267593</v>
+        <v>280127.5015072506</v>
       </c>
       <c r="AF11" t="n">
         <v>1.584413558979087e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.908854166666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>180787.8808285514</v>
+        <v>253392.5259248985</v>
       </c>
     </row>
     <row r="12">
@@ -4812,28 +4812,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>144.9527902594827</v>
+        <v>193.8953966112238</v>
       </c>
       <c r="AB12" t="n">
-        <v>198.3308024987152</v>
+        <v>265.2962357045377</v>
       </c>
       <c r="AC12" t="n">
-        <v>179.4023890673236</v>
+        <v>239.9767353145795</v>
       </c>
       <c r="AD12" t="n">
-        <v>144952.7902594827</v>
+        <v>193895.3966112238</v>
       </c>
       <c r="AE12" t="n">
-        <v>198330.8024987152</v>
+        <v>265296.2357045377</v>
       </c>
       <c r="AF12" t="n">
         <v>1.594056683406092e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.84375</v>
       </c>
       <c r="AH12" t="n">
-        <v>179402.3890673236</v>
+        <v>239976.7353145795</v>
       </c>
     </row>
     <row r="13">
@@ -4918,28 +4918,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>144.8133712652295</v>
+        <v>193.7559776169706</v>
       </c>
       <c r="AB13" t="n">
-        <v>198.1400432800462</v>
+        <v>265.1054764858686</v>
       </c>
       <c r="AC13" t="n">
-        <v>179.2298356407521</v>
+        <v>239.8041818880079</v>
       </c>
       <c r="AD13" t="n">
-        <v>144813.3712652295</v>
+        <v>193755.9776169706</v>
       </c>
       <c r="AE13" t="n">
-        <v>198140.0432800462</v>
+        <v>265105.4764858686</v>
       </c>
       <c r="AF13" t="n">
         <v>1.593237017829796e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.850260416666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>179229.8356407521</v>
+        <v>239804.1818880079</v>
       </c>
     </row>
   </sheetData>
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>286.3582727707756</v>
+        <v>373.4490497029677</v>
       </c>
       <c r="AB2" t="n">
-        <v>391.8080220403618</v>
+        <v>510.9694652128984</v>
       </c>
       <c r="AC2" t="n">
-        <v>354.4144143228416</v>
+        <v>462.2032566031272</v>
       </c>
       <c r="AD2" t="n">
-        <v>286358.2727707756</v>
+        <v>373449.0497029677</v>
       </c>
       <c r="AE2" t="n">
-        <v>391808.0220403618</v>
+        <v>510969.4652128984</v>
       </c>
       <c r="AF2" t="n">
         <v>1.020474145193424e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.82942708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>354414.4143228416</v>
+        <v>462203.2566031272</v>
       </c>
     </row>
     <row r="3">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>193.4332680807424</v>
+        <v>251.4492431736859</v>
       </c>
       <c r="AB3" t="n">
-        <v>264.6639310614614</v>
+        <v>344.0439476677687</v>
       </c>
       <c r="AC3" t="n">
-        <v>239.4047769391932</v>
+        <v>311.2088761711727</v>
       </c>
       <c r="AD3" t="n">
-        <v>193433.2680807424</v>
+        <v>251449.2431736859</v>
       </c>
       <c r="AE3" t="n">
-        <v>264663.9310614615</v>
+        <v>344043.9476677687</v>
       </c>
       <c r="AF3" t="n">
         <v>1.422507088555182e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.0703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>239404.7769391932</v>
+        <v>311208.8761711727</v>
       </c>
     </row>
     <row r="4">
@@ -5427,28 +5427,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>162.7776524046606</v>
+        <v>220.8267818865278</v>
       </c>
       <c r="AB4" t="n">
-        <v>222.7195652631536</v>
+        <v>302.1449451670545</v>
       </c>
       <c r="AC4" t="n">
-        <v>201.4635225433753</v>
+        <v>273.308655663494</v>
       </c>
       <c r="AD4" t="n">
-        <v>162777.6524046607</v>
+        <v>220826.7818865278</v>
       </c>
       <c r="AE4" t="n">
-        <v>222719.5652631536</v>
+        <v>302144.9451670545</v>
       </c>
       <c r="AF4" t="n">
         <v>1.569039009057417e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.94401041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>201463.5225433753</v>
+        <v>273308.655663494</v>
       </c>
     </row>
     <row r="5">
@@ -5533,28 +5533,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>157.7936795866738</v>
+        <v>206.1291055295092</v>
       </c>
       <c r="AB5" t="n">
-        <v>215.9002737762248</v>
+        <v>282.0349359596739</v>
       </c>
       <c r="AC5" t="n">
-        <v>195.2950546650211</v>
+        <v>255.1179175102842</v>
       </c>
       <c r="AD5" t="n">
-        <v>157793.6795866738</v>
+        <v>206129.1055295093</v>
       </c>
       <c r="AE5" t="n">
-        <v>215900.2737762248</v>
+        <v>282034.9359596739</v>
       </c>
       <c r="AF5" t="n">
         <v>1.642529185568529e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.45572916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>195295.0546650211</v>
+        <v>255117.9175102842</v>
       </c>
     </row>
     <row r="6">
@@ -5639,28 +5639,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>154.5711160867816</v>
+        <v>202.9065420296172</v>
       </c>
       <c r="AB6" t="n">
-        <v>211.4910202262068</v>
+        <v>277.6256824096559</v>
       </c>
       <c r="AC6" t="n">
-        <v>191.3066140853892</v>
+        <v>251.1294769306523</v>
       </c>
       <c r="AD6" t="n">
-        <v>154571.1160867816</v>
+        <v>202906.5420296172</v>
       </c>
       <c r="AE6" t="n">
-        <v>211491.0202262068</v>
+        <v>277625.6824096559</v>
       </c>
       <c r="AF6" t="n">
         <v>1.687266924033298e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.17578125</v>
       </c>
       <c r="AH6" t="n">
-        <v>191306.6140853892</v>
+        <v>251129.4769306523</v>
       </c>
     </row>
     <row r="7">
@@ -5745,19 +5745,19 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>142.3699480872906</v>
+        <v>200.3849121503769</v>
       </c>
       <c r="AB7" t="n">
-        <v>194.7968438917691</v>
+        <v>274.1754771624223</v>
       </c>
       <c r="AC7" t="n">
-        <v>176.2057065098813</v>
+        <v>248.00855442982</v>
       </c>
       <c r="AD7" t="n">
-        <v>142369.9480872906</v>
+        <v>200384.9121503769</v>
       </c>
       <c r="AE7" t="n">
-        <v>194796.8438917691</v>
+        <v>274175.4771624223</v>
       </c>
       <c r="AF7" t="n">
         <v>1.717127254187849e-05</v>
@@ -5766,7 +5766,7 @@
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>176205.7065098812</v>
+        <v>248008.55442982</v>
       </c>
     </row>
     <row r="8">
@@ -5851,28 +5851,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>140.0433720910923</v>
+        <v>188.4461178416323</v>
       </c>
       <c r="AB8" t="n">
-        <v>191.6135199724833</v>
+        <v>257.840292086774</v>
       </c>
       <c r="AC8" t="n">
-        <v>173.326194557628</v>
+        <v>233.2323764912101</v>
       </c>
       <c r="AD8" t="n">
-        <v>140043.3720910923</v>
+        <v>188446.1178416323</v>
       </c>
       <c r="AE8" t="n">
-        <v>191613.5199724833</v>
+        <v>257840.2920867739</v>
       </c>
       <c r="AF8" t="n">
         <v>1.744534394674225e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.84375</v>
       </c>
       <c r="AH8" t="n">
-        <v>173326.194557628</v>
+        <v>233232.3764912101</v>
       </c>
     </row>
     <row r="9">
@@ -5957,28 +5957,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>138.7339926673023</v>
+        <v>187.1367384178423</v>
       </c>
       <c r="AB9" t="n">
-        <v>189.8219692791115</v>
+        <v>256.0487413934021</v>
       </c>
       <c r="AC9" t="n">
-        <v>171.7056269479738</v>
+        <v>231.611808881556</v>
       </c>
       <c r="AD9" t="n">
-        <v>138733.9926673023</v>
+        <v>187136.7384178423</v>
       </c>
       <c r="AE9" t="n">
-        <v>189821.9692791115</v>
+        <v>256048.7413934021</v>
       </c>
       <c r="AF9" t="n">
         <v>1.756773964631568e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.778645833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>171705.6269479738</v>
+        <v>231611.808881556</v>
       </c>
     </row>
     <row r="10">
@@ -6063,28 +6063,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>138.8148367261519</v>
+        <v>187.2175824766918</v>
       </c>
       <c r="AB10" t="n">
-        <v>189.9325836870176</v>
+        <v>256.1593558013081</v>
       </c>
       <c r="AC10" t="n">
-        <v>171.8056844720376</v>
+        <v>231.7118664056198</v>
       </c>
       <c r="AD10" t="n">
-        <v>138814.8367261519</v>
+        <v>187217.5824766918</v>
       </c>
       <c r="AE10" t="n">
-        <v>189932.5836870176</v>
+        <v>256159.3558013081</v>
       </c>
       <c r="AF10" t="n">
         <v>1.757169640384499e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.772135416666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>171805.6844720376</v>
+        <v>231711.8664056198</v>
       </c>
     </row>
   </sheetData>
@@ -6360,28 +6360,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.7568135650725</v>
+        <v>214.8897040034309</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.2180761759416</v>
+        <v>294.021573282015</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.4870878532567</v>
+        <v>265.9605669899361</v>
       </c>
       <c r="AD2" t="n">
-        <v>158756.8135650725</v>
+        <v>214889.7040034309</v>
       </c>
       <c r="AE2" t="n">
-        <v>217218.0761759416</v>
+        <v>294021.573282015</v>
       </c>
       <c r="AF2" t="n">
         <v>2.019347701724319e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.86848958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>196487.0878532567</v>
+        <v>265960.5669899361</v>
       </c>
     </row>
     <row r="3">
@@ -6466,28 +6466,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.5530890896727</v>
+        <v>182.2631779806002</v>
       </c>
       <c r="AB3" t="n">
-        <v>185.469716672639</v>
+        <v>249.3805209968588</v>
       </c>
       <c r="AC3" t="n">
-        <v>167.7687472218368</v>
+        <v>225.5799940807505</v>
       </c>
       <c r="AD3" t="n">
-        <v>135553.0890896727</v>
+        <v>182263.1779806002</v>
       </c>
       <c r="AE3" t="n">
-        <v>185469.716672639</v>
+        <v>249380.5209968588</v>
       </c>
       <c r="AF3" t="n">
         <v>2.37619264803056e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.08463541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>167768.7472218368</v>
+        <v>225579.9940807505</v>
       </c>
     </row>
     <row r="4">
@@ -6572,28 +6572,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>124.3446304785705</v>
+        <v>171.1220391772025</v>
       </c>
       <c r="AB4" t="n">
-        <v>170.1338091186417</v>
+        <v>234.1367233737028</v>
       </c>
       <c r="AC4" t="n">
-        <v>153.8964771607066</v>
+        <v>211.7910431079394</v>
       </c>
       <c r="AD4" t="n">
-        <v>124344.6304785705</v>
+        <v>171122.0391772025</v>
       </c>
       <c r="AE4" t="n">
-        <v>170133.8091186417</v>
+        <v>234136.7233737028</v>
       </c>
       <c r="AF4" t="n">
         <v>2.422878511827126e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.895833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>153896.4771607066</v>
+        <v>211791.0431079394</v>
       </c>
     </row>
   </sheetData>
@@ -6869,28 +6869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>200.2270020314868</v>
+        <v>266.5035077043562</v>
       </c>
       <c r="AB2" t="n">
-        <v>273.9594175712542</v>
+        <v>364.6418565460723</v>
       </c>
       <c r="AC2" t="n">
-        <v>247.8131152627915</v>
+        <v>329.8409495353743</v>
       </c>
       <c r="AD2" t="n">
-        <v>200227.0020314868</v>
+        <v>266503.5077043562</v>
       </c>
       <c r="AE2" t="n">
-        <v>273959.4175712542</v>
+        <v>364641.8565460723</v>
       </c>
       <c r="AF2" t="n">
         <v>1.552470742268065e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.37239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>247813.1152627915</v>
+        <v>329840.9495353743</v>
       </c>
     </row>
     <row r="3">
@@ -6975,28 +6975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.9597919764778</v>
+        <v>205.8210473285696</v>
       </c>
       <c r="AB3" t="n">
-        <v>203.8133590243447</v>
+        <v>281.6134371385798</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.3616980929652</v>
+        <v>254.7366459450979</v>
       </c>
       <c r="AD3" t="n">
-        <v>148959.7919764778</v>
+        <v>205821.0473285696</v>
       </c>
       <c r="AE3" t="n">
-        <v>203813.3590243447</v>
+        <v>281613.4371385798</v>
       </c>
       <c r="AF3" t="n">
         <v>1.926351866191568e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.77473958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>184361.6980929652</v>
+        <v>254736.6459450979</v>
       </c>
     </row>
     <row r="4">
@@ -7081,28 +7081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>142.3079321308784</v>
+        <v>189.6534629655678</v>
       </c>
       <c r="AB4" t="n">
-        <v>194.7119909242551</v>
+        <v>259.4922349496493</v>
       </c>
       <c r="AC4" t="n">
-        <v>176.1289517904949</v>
+        <v>234.7266602457696</v>
       </c>
       <c r="AD4" t="n">
-        <v>142307.9321308784</v>
+        <v>189653.4629655678</v>
       </c>
       <c r="AE4" t="n">
-        <v>194711.9909242551</v>
+        <v>259492.2349496493</v>
       </c>
       <c r="AF4" t="n">
         <v>2.066262353295126e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.04557291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>176128.9517904949</v>
+        <v>234726.6602457696</v>
       </c>
     </row>
     <row r="5">
@@ -7187,28 +7187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>129.6504787716657</v>
+        <v>177.0633294140594</v>
       </c>
       <c r="AB5" t="n">
-        <v>177.3935048307571</v>
+        <v>242.2658587869928</v>
       </c>
       <c r="AC5" t="n">
-        <v>160.463317703107</v>
+        <v>219.1443452467007</v>
       </c>
       <c r="AD5" t="n">
-        <v>129650.4787716657</v>
+        <v>177063.3294140594</v>
       </c>
       <c r="AE5" t="n">
-        <v>177393.5048307571</v>
+        <v>242265.8587869928</v>
       </c>
       <c r="AF5" t="n">
         <v>2.122634673531929e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.778645833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>160463.317703107</v>
+        <v>219144.3452467007</v>
       </c>
     </row>
     <row r="6">
@@ -7293,28 +7293,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>129.2818703442942</v>
+        <v>176.694720986688</v>
       </c>
       <c r="AB6" t="n">
-        <v>176.8891585185716</v>
+        <v>241.7615124748073</v>
       </c>
       <c r="AC6" t="n">
-        <v>160.0071054951018</v>
+        <v>218.6881330386956</v>
       </c>
       <c r="AD6" t="n">
-        <v>129281.8703442942</v>
+        <v>176694.720986688</v>
       </c>
       <c r="AE6" t="n">
-        <v>176889.1585185716</v>
+        <v>241761.5124748073</v>
       </c>
       <c r="AF6" t="n">
         <v>2.129266711206848e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.74609375</v>
       </c>
       <c r="AH6" t="n">
-        <v>160007.1054951018</v>
+        <v>218688.1330386956</v>
       </c>
     </row>
   </sheetData>
@@ -7590,28 +7590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.6130300410626</v>
+        <v>191.0863237693441</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.5517305267388</v>
+        <v>261.4527383147323</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.8429337888084</v>
+        <v>236.5000559212735</v>
       </c>
       <c r="AD2" t="n">
-        <v>135613.0300410626</v>
+        <v>191086.3237693441</v>
       </c>
       <c r="AE2" t="n">
-        <v>185551.7305267388</v>
+        <v>261452.7383147323</v>
       </c>
       <c r="AF2" t="n">
         <v>2.506787645585944e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.95052083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>167842.9337888084</v>
+        <v>236500.0559212735</v>
       </c>
     </row>
     <row r="3">
@@ -7696,28 +7696,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.6274765932261</v>
+        <v>175.816372741407</v>
       </c>
       <c r="AB3" t="n">
-        <v>177.3620322354317</v>
+        <v>240.5597176556247</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.4348488081073</v>
+        <v>217.6010358303258</v>
       </c>
       <c r="AD3" t="n">
-        <v>129627.4765932261</v>
+        <v>175816.372741407</v>
       </c>
       <c r="AE3" t="n">
-        <v>177362.0322354317</v>
+        <v>240559.7176556247</v>
       </c>
       <c r="AF3" t="n">
         <v>2.724008276135928e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>160434.8488081073</v>
+        <v>217601.0358303258</v>
       </c>
     </row>
   </sheetData>
@@ -7993,28 +7993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>308.4519609519512</v>
+        <v>395.8323192413921</v>
       </c>
       <c r="AB2" t="n">
-        <v>422.0375809145776</v>
+        <v>541.5952420755297</v>
       </c>
       <c r="AC2" t="n">
-        <v>381.7589065255546</v>
+        <v>489.9061523055367</v>
       </c>
       <c r="AD2" t="n">
-        <v>308451.9609519512</v>
+        <v>395832.3192413921</v>
       </c>
       <c r="AE2" t="n">
-        <v>422037.5809145776</v>
+        <v>541595.2420755296</v>
       </c>
       <c r="AF2" t="n">
         <v>9.563866461807415e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.51953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>381758.9065255545</v>
+        <v>489906.1523055367</v>
       </c>
     </row>
     <row r="3">
@@ -8099,28 +8099,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>198.0780073541315</v>
+        <v>256.2642597393869</v>
       </c>
       <c r="AB3" t="n">
-        <v>271.019068246744</v>
+        <v>350.6320657564963</v>
       </c>
       <c r="AC3" t="n">
-        <v>245.1533887510055</v>
+        <v>317.168233515996</v>
       </c>
       <c r="AD3" t="n">
-        <v>198078.0073541315</v>
+        <v>256264.2597393869</v>
       </c>
       <c r="AE3" t="n">
-        <v>271019.068246744</v>
+        <v>350632.0657564963</v>
       </c>
       <c r="AF3" t="n">
         <v>1.36018804895399e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.31770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>245153.3887510055</v>
+        <v>317168.233515996</v>
       </c>
     </row>
     <row r="4">
@@ -8205,28 +8205,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>175.9937217543823</v>
+        <v>224.5052108595919</v>
       </c>
       <c r="AB4" t="n">
-        <v>240.8023743992636</v>
+        <v>307.1779339688314</v>
       </c>
       <c r="AC4" t="n">
-        <v>217.8205337549228</v>
+        <v>277.861303077875</v>
       </c>
       <c r="AD4" t="n">
-        <v>175993.7217543823</v>
+        <v>224505.2108595919</v>
       </c>
       <c r="AE4" t="n">
-        <v>240802.3743992636</v>
+        <v>307177.9339688314</v>
       </c>
       <c r="AF4" t="n">
         <v>1.508946148439336e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.10677083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>217820.5337549228</v>
+        <v>277861.3030778751</v>
       </c>
     </row>
     <row r="5">
@@ -8311,28 +8311,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>160.4881500326495</v>
+        <v>209.0669589455635</v>
       </c>
       <c r="AB5" t="n">
-        <v>219.5869671120535</v>
+        <v>286.0546366124627</v>
       </c>
       <c r="AC5" t="n">
-        <v>198.6298951631861</v>
+        <v>258.7539835744574</v>
       </c>
       <c r="AD5" t="n">
-        <v>160488.1500326495</v>
+        <v>209066.9589455635</v>
       </c>
       <c r="AE5" t="n">
-        <v>219586.9671120535</v>
+        <v>286054.6366124627</v>
       </c>
       <c r="AF5" t="n">
         <v>1.588795192322973e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.546875</v>
       </c>
       <c r="AH5" t="n">
-        <v>198629.8951631861</v>
+        <v>258753.9835744574</v>
       </c>
     </row>
     <row r="6">
@@ -8417,28 +8417,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>157.3896942474875</v>
+        <v>205.8670179339163</v>
       </c>
       <c r="AB6" t="n">
-        <v>215.3475232125751</v>
+        <v>281.6763361488951</v>
       </c>
       <c r="AC6" t="n">
-        <v>194.7950578393757</v>
+        <v>254.793541962148</v>
       </c>
       <c r="AD6" t="n">
-        <v>157389.6942474875</v>
+        <v>205867.0179339163</v>
       </c>
       <c r="AE6" t="n">
-        <v>215347.5232125751</v>
+        <v>281676.3361488951</v>
       </c>
       <c r="AF6" t="n">
         <v>1.630315665496508e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.27994791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>194795.0578393757</v>
+        <v>254793.541962148</v>
       </c>
     </row>
     <row r="7">
@@ -8523,28 +8523,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>155.0974113082143</v>
+        <v>203.574734994643</v>
       </c>
       <c r="AB7" t="n">
-        <v>212.211120566677</v>
+        <v>278.539933502997</v>
       </c>
       <c r="AC7" t="n">
-        <v>191.9579890600324</v>
+        <v>251.9564731828047</v>
       </c>
       <c r="AD7" t="n">
-        <v>155097.4113082143</v>
+        <v>203574.734994643</v>
       </c>
       <c r="AE7" t="n">
-        <v>212211.120566677</v>
+        <v>278539.933502997</v>
       </c>
       <c r="AF7" t="n">
         <v>1.660484292005736e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.09114583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>191957.9890600324</v>
+        <v>251956.4731828047</v>
       </c>
     </row>
     <row r="8">
@@ -8629,28 +8629,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>143.0817411307049</v>
+        <v>201.2669824861031</v>
       </c>
       <c r="AB8" t="n">
-        <v>195.7707505358609</v>
+        <v>275.382364709959</v>
       </c>
       <c r="AC8" t="n">
-        <v>177.0866648707478</v>
+        <v>249.1002583236976</v>
       </c>
       <c r="AD8" t="n">
-        <v>143081.7411307049</v>
+        <v>201266.9824861031</v>
       </c>
       <c r="AE8" t="n">
-        <v>195770.7505358609</v>
+        <v>275382.364709959</v>
       </c>
       <c r="AF8" t="n">
         <v>1.683677067163426e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.954427083333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>177086.6648707478</v>
+        <v>249100.2583236976</v>
       </c>
     </row>
     <row r="9">
@@ -8735,28 +8735,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>141.1961726468874</v>
+        <v>189.7408161410205</v>
       </c>
       <c r="AB9" t="n">
-        <v>193.1908325508924</v>
+        <v>259.6117554180539</v>
       </c>
       <c r="AC9" t="n">
-        <v>174.7529706373263</v>
+        <v>234.8347738484177</v>
       </c>
       <c r="AD9" t="n">
-        <v>141196.1726468874</v>
+        <v>189740.8161410205</v>
       </c>
       <c r="AE9" t="n">
-        <v>193190.8325508924</v>
+        <v>259611.7554180539</v>
       </c>
       <c r="AF9" t="n">
         <v>1.699533614885e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.86328125</v>
       </c>
       <c r="AH9" t="n">
-        <v>174752.9706373263</v>
+        <v>234834.7738484177</v>
       </c>
     </row>
     <row r="10">
@@ -8841,28 +8841,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>140.5808540856568</v>
+        <v>189.12549757979</v>
       </c>
       <c r="AB10" t="n">
-        <v>192.3489265494781</v>
+        <v>258.7698494166395</v>
       </c>
       <c r="AC10" t="n">
-        <v>173.9914149630642</v>
+        <v>234.0732181741556</v>
       </c>
       <c r="AD10" t="n">
-        <v>140580.8540856568</v>
+        <v>189125.49757979</v>
       </c>
       <c r="AE10" t="n">
-        <v>192348.9265494781</v>
+        <v>258769.8494166395</v>
       </c>
       <c r="AF10" t="n">
         <v>1.70509370304711e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.830729166666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>173991.4149630642</v>
+        <v>234073.2181741556</v>
       </c>
     </row>
     <row r="11">
@@ -8947,28 +8947,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>140.2055521011964</v>
+        <v>188.7501955953296</v>
       </c>
       <c r="AB11" t="n">
-        <v>191.8354218171847</v>
+        <v>258.2563446843461</v>
       </c>
       <c r="AC11" t="n">
-        <v>173.5269184017123</v>
+        <v>233.6087216128036</v>
       </c>
       <c r="AD11" t="n">
-        <v>140205.5521011964</v>
+        <v>188750.1955953296</v>
       </c>
       <c r="AE11" t="n">
-        <v>191835.4218171847</v>
+        <v>258256.3446843461</v>
       </c>
       <c r="AF11" t="n">
         <v>1.714437740097323e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.772135416666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>173526.9184017123</v>
+        <v>233608.7216128036</v>
       </c>
     </row>
   </sheetData>
@@ -9244,28 +9244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.5329517402814</v>
+        <v>174.4132237482189</v>
       </c>
       <c r="AB2" t="n">
-        <v>175.8644550446048</v>
+        <v>238.639867300581</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.0801982825097</v>
+        <v>215.8644132986399</v>
       </c>
       <c r="AD2" t="n">
-        <v>128532.9517402814</v>
+        <v>174413.2237482189</v>
       </c>
       <c r="AE2" t="n">
-        <v>175864.4550446048</v>
+        <v>238639.867300581</v>
       </c>
       <c r="AF2" t="n">
         <v>2.863041918615647e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.49479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>159080.1982825098</v>
+        <v>215864.4132986399</v>
       </c>
     </row>
     <row r="3">
@@ -9350,28 +9350,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.5479447507806</v>
+        <v>173.428216758718</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.5167250261291</v>
+        <v>237.2921372821051</v>
       </c>
       <c r="AC3" t="n">
-        <v>157.8610937254459</v>
+        <v>214.645308741576</v>
       </c>
       <c r="AD3" t="n">
-        <v>127547.9447507806</v>
+        <v>173428.216758718</v>
       </c>
       <c r="AE3" t="n">
-        <v>174516.725026129</v>
+        <v>237292.1372821051</v>
       </c>
       <c r="AF3" t="n">
         <v>2.916105646800408e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.29947916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>157861.0937254459</v>
+        <v>214645.308741576</v>
       </c>
     </row>
   </sheetData>
@@ -9647,28 +9647,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>235.3655266252021</v>
+        <v>312.0389114751686</v>
       </c>
       <c r="AB2" t="n">
-        <v>322.0374971226485</v>
+        <v>426.9454048655323</v>
       </c>
       <c r="AC2" t="n">
-        <v>291.3026903798245</v>
+        <v>386.1983346468044</v>
       </c>
       <c r="AD2" t="n">
-        <v>235365.5266252021</v>
+        <v>312038.9114751685</v>
       </c>
       <c r="AE2" t="n">
-        <v>322037.4971226485</v>
+        <v>426945.4048655323</v>
       </c>
       <c r="AF2" t="n">
         <v>1.24784809217714e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.96744791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>291302.6903798245</v>
+        <v>386198.3346468044</v>
       </c>
     </row>
     <row r="3">
@@ -9753,28 +9753,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.5578077148276</v>
+        <v>227.9869851898999</v>
       </c>
       <c r="AB3" t="n">
-        <v>233.3647169947466</v>
+        <v>311.9418512125991</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.0927159342728</v>
+        <v>282.1705587460989</v>
       </c>
       <c r="AD3" t="n">
-        <v>170557.8077148276</v>
+        <v>227986.9851898999</v>
       </c>
       <c r="AE3" t="n">
-        <v>233364.7169947466</v>
+        <v>311941.8512125991</v>
       </c>
       <c r="AF3" t="n">
         <v>1.642868524896679e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.3671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>211092.7159342728</v>
+        <v>282170.5587460989</v>
       </c>
     </row>
     <row r="4">
@@ -9859,28 +9859,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>152.5420808312064</v>
+        <v>200.4169799414666</v>
       </c>
       <c r="AB4" t="n">
-        <v>208.7148046748123</v>
+        <v>274.2193537289223</v>
       </c>
       <c r="AC4" t="n">
-        <v>188.7953566497759</v>
+        <v>248.0482434783945</v>
       </c>
       <c r="AD4" t="n">
-        <v>152542.0808312064</v>
+        <v>200416.9799414666</v>
       </c>
       <c r="AE4" t="n">
-        <v>208714.8046748123</v>
+        <v>274219.3537289223</v>
       </c>
       <c r="AF4" t="n">
         <v>1.781951742893851e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.48177083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>188795.3566497759</v>
+        <v>248048.2434783945</v>
       </c>
     </row>
     <row r="5">
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>148.7327421792543</v>
+        <v>196.6076412895145</v>
       </c>
       <c r="AB5" t="n">
-        <v>203.5026994750535</v>
+        <v>269.0072485291634</v>
       </c>
       <c r="AC5" t="n">
-        <v>184.0806874550449</v>
+        <v>243.3335742836634</v>
       </c>
       <c r="AD5" t="n">
-        <v>148732.7421792543</v>
+        <v>196607.6412895145</v>
       </c>
       <c r="AE5" t="n">
-        <v>203502.6994750535</v>
+        <v>269007.2485291634</v>
       </c>
       <c r="AF5" t="n">
         <v>1.848295212315888e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.10416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>184080.6874550449</v>
+        <v>243333.5742836634</v>
       </c>
     </row>
     <row r="6">
@@ -10071,28 +10071,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>136.2736399692045</v>
+        <v>193.7359718332004</v>
       </c>
       <c r="AB6" t="n">
-        <v>186.4556061744753</v>
+        <v>265.0781036899214</v>
       </c>
       <c r="AC6" t="n">
-        <v>168.6605448133227</v>
+        <v>239.7794215132879</v>
       </c>
       <c r="AD6" t="n">
-        <v>136273.6399692045</v>
+        <v>193735.9718332004</v>
       </c>
       <c r="AE6" t="n">
-        <v>186455.6061744753</v>
+        <v>265078.1036899214</v>
       </c>
       <c r="AF6" t="n">
         <v>1.885210061060445e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.90234375</v>
       </c>
       <c r="AH6" t="n">
-        <v>168660.5448133227</v>
+        <v>239779.4215132879</v>
       </c>
     </row>
     <row r="7">
@@ -10177,28 +10177,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>134.3767604804246</v>
+        <v>182.3189793983892</v>
       </c>
       <c r="AB7" t="n">
-        <v>183.860211973511</v>
+        <v>249.4568709584624</v>
       </c>
       <c r="AC7" t="n">
-        <v>166.312851392239</v>
+        <v>225.6490573091766</v>
       </c>
       <c r="AD7" t="n">
-        <v>134376.7604804246</v>
+        <v>182318.9793983892</v>
       </c>
       <c r="AE7" t="n">
-        <v>183860.211973511</v>
+        <v>249456.8709584624</v>
       </c>
       <c r="AF7" t="n">
         <v>1.911971175185287e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.765625</v>
       </c>
       <c r="AH7" t="n">
-        <v>166312.851392239</v>
+        <v>225649.0573091766</v>
       </c>
     </row>
     <row r="8">
@@ -10283,28 +10283,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>134.5600716638911</v>
+        <v>182.5022905818556</v>
       </c>
       <c r="AB8" t="n">
-        <v>184.1110264218483</v>
+        <v>249.7076854067998</v>
       </c>
       <c r="AC8" t="n">
-        <v>166.5397284616473</v>
+        <v>225.875934378585</v>
       </c>
       <c r="AD8" t="n">
-        <v>134560.0716638911</v>
+        <v>182502.2905818556</v>
       </c>
       <c r="AE8" t="n">
-        <v>184111.0264218483</v>
+        <v>249707.6854067997</v>
       </c>
       <c r="AF8" t="n">
         <v>1.90887342564029e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.78515625</v>
       </c>
       <c r="AH8" t="n">
-        <v>166539.7284616473</v>
+        <v>225875.934378585</v>
       </c>
     </row>
   </sheetData>
@@ -10580,28 +10580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>275.3453193476259</v>
+        <v>352.4867230073611</v>
       </c>
       <c r="AB2" t="n">
-        <v>376.7396133095937</v>
+        <v>482.2878850353841</v>
       </c>
       <c r="AC2" t="n">
-        <v>340.7841133726934</v>
+        <v>436.2590061829042</v>
       </c>
       <c r="AD2" t="n">
-        <v>275345.3193476259</v>
+        <v>352486.7230073612</v>
       </c>
       <c r="AE2" t="n">
-        <v>376739.6133095936</v>
+        <v>482287.8850353841</v>
       </c>
       <c r="AF2" t="n">
         <v>1.087972809195506e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.19791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>340784.1133726934</v>
+        <v>436259.0061829042</v>
       </c>
     </row>
     <row r="3">
@@ -10686,28 +10686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>179.1361990786714</v>
+        <v>237.0427416792503</v>
       </c>
       <c r="AB3" t="n">
-        <v>245.1020505106689</v>
+        <v>324.3323367531021</v>
       </c>
       <c r="AC3" t="n">
-        <v>221.7098548128902</v>
+        <v>293.378513736776</v>
       </c>
       <c r="AD3" t="n">
-        <v>179136.1990786714</v>
+        <v>237042.7416792503</v>
       </c>
       <c r="AE3" t="n">
-        <v>245102.0505106689</v>
+        <v>324332.3367531021</v>
       </c>
       <c r="AF3" t="n">
         <v>1.490456417046704e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.82291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>221709.8548128902</v>
+        <v>293378.513736776</v>
       </c>
     </row>
     <row r="4">
@@ -10792,28 +10792,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>159.4171684904999</v>
+        <v>217.289545672298</v>
       </c>
       <c r="AB4" t="n">
-        <v>218.1216029177141</v>
+        <v>297.3051425268995</v>
       </c>
       <c r="AC4" t="n">
-        <v>197.3043832709024</v>
+        <v>268.9307569946082</v>
       </c>
       <c r="AD4" t="n">
-        <v>159417.1684904999</v>
+        <v>217289.545672298</v>
       </c>
       <c r="AE4" t="n">
-        <v>218121.6029177141</v>
+        <v>297305.1425268995</v>
       </c>
       <c r="AF4" t="n">
         <v>1.633326455969802e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.79427083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>197304.3832709024</v>
+        <v>268930.7569946082</v>
       </c>
     </row>
     <row r="5">
@@ -10898,28 +10898,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>154.903853772487</v>
+        <v>203.0919861319316</v>
       </c>
       <c r="AB5" t="n">
-        <v>211.9462866071393</v>
+        <v>277.8794152116589</v>
       </c>
       <c r="AC5" t="n">
-        <v>191.718430481896</v>
+        <v>251.3589938301484</v>
       </c>
       <c r="AD5" t="n">
-        <v>154903.853772487</v>
+        <v>203091.9861319316</v>
       </c>
       <c r="AE5" t="n">
-        <v>211946.2866071393</v>
+        <v>277879.4152116589</v>
       </c>
       <c r="AF5" t="n">
         <v>1.702663232487152e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.3515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>191718.430481896</v>
+        <v>251358.9938301484</v>
       </c>
     </row>
     <row r="6">
@@ -11004,28 +11004,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>151.7336609484805</v>
+        <v>199.9217933079251</v>
       </c>
       <c r="AB6" t="n">
-        <v>207.6086889262991</v>
+        <v>273.5418175308186</v>
       </c>
       <c r="AC6" t="n">
-        <v>187.7948070358572</v>
+        <v>247.4353703841096</v>
       </c>
       <c r="AD6" t="n">
-        <v>151733.6609484805</v>
+        <v>199921.7933079251</v>
       </c>
       <c r="AE6" t="n">
-        <v>207608.6889262991</v>
+        <v>273541.8175308186</v>
       </c>
       <c r="AF6" t="n">
         <v>1.74906824418209e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.078125</v>
       </c>
       <c r="AH6" t="n">
-        <v>187794.8070358572</v>
+        <v>247435.3703841096</v>
       </c>
     </row>
     <row r="7">
@@ -11110,28 +11110,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>139.5032602323316</v>
+        <v>197.3414719953489</v>
       </c>
       <c r="AB7" t="n">
-        <v>190.8745150992737</v>
+        <v>270.0113080752114</v>
       </c>
       <c r="AC7" t="n">
-        <v>172.6577192723174</v>
+        <v>244.2418077958433</v>
       </c>
       <c r="AD7" t="n">
-        <v>139503.2602323316</v>
+        <v>197341.4719953489</v>
       </c>
       <c r="AE7" t="n">
-        <v>190874.5150992737</v>
+        <v>270011.3080752114</v>
       </c>
       <c r="AF7" t="n">
         <v>1.77890390514348e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.908854166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>172657.7192723174</v>
+        <v>244241.8077958433</v>
       </c>
     </row>
     <row r="8">
@@ -11216,28 +11216,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>137.2924849684429</v>
+        <v>185.547937135592</v>
       </c>
       <c r="AB8" t="n">
-        <v>187.8496348507016</v>
+        <v>253.8748733860627</v>
       </c>
       <c r="AC8" t="n">
-        <v>169.9215293492219</v>
+        <v>229.6454117857934</v>
       </c>
       <c r="AD8" t="n">
-        <v>137292.4849684429</v>
+        <v>185547.937135592</v>
       </c>
       <c r="AE8" t="n">
-        <v>187849.6348507016</v>
+        <v>253874.8733860627</v>
       </c>
       <c r="AF8" t="n">
         <v>1.804380635601436e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.765625</v>
       </c>
       <c r="AH8" t="n">
-        <v>169921.5293492219</v>
+        <v>229645.4117857934</v>
       </c>
     </row>
     <row r="9">
@@ -11322,28 +11322,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>137.4511002948888</v>
+        <v>185.7065524620379</v>
       </c>
       <c r="AB9" t="n">
-        <v>188.0666593379592</v>
+        <v>254.0918978733202</v>
       </c>
       <c r="AC9" t="n">
-        <v>170.1178413240115</v>
+        <v>229.841723760583</v>
       </c>
       <c r="AD9" t="n">
-        <v>137451.1002948888</v>
+        <v>185706.5524620379</v>
       </c>
       <c r="AE9" t="n">
-        <v>188066.6593379592</v>
+        <v>254091.8978733202</v>
       </c>
       <c r="AF9" t="n">
         <v>1.801998114580926e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.778645833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>170117.8413240115</v>
+        <v>229841.723760583</v>
       </c>
     </row>
   </sheetData>
@@ -11619,28 +11619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>355.8773958828371</v>
+        <v>443.7097562848543</v>
       </c>
       <c r="AB2" t="n">
-        <v>486.9271532495404</v>
+        <v>607.103263641845</v>
       </c>
       <c r="AC2" t="n">
-        <v>440.4555091499553</v>
+        <v>549.1621802346488</v>
       </c>
       <c r="AD2" t="n">
-        <v>355877.3958828371</v>
+        <v>443709.7562848543</v>
       </c>
       <c r="AE2" t="n">
-        <v>486927.1532495404</v>
+        <v>607103.2636418451</v>
       </c>
       <c r="AF2" t="n">
         <v>8.431264073487718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.00390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>440455.5091499554</v>
+        <v>549162.1802346488</v>
       </c>
     </row>
     <row r="3">
@@ -11725,28 +11725,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.1853306690392</v>
+        <v>275.4910100876592</v>
       </c>
       <c r="AB3" t="n">
-        <v>283.4801097929425</v>
+        <v>376.9389538075289</v>
       </c>
       <c r="AC3" t="n">
-        <v>256.4251659812203</v>
+        <v>340.964429093282</v>
       </c>
       <c r="AD3" t="n">
-        <v>207185.3306690392</v>
+        <v>275491.0100876592</v>
       </c>
       <c r="AE3" t="n">
-        <v>283480.1097929425</v>
+        <v>376938.9538075289</v>
       </c>
       <c r="AF3" t="n">
         <v>1.251682275112721e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.79947916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>256425.1659812203</v>
+        <v>340964.429093282</v>
       </c>
     </row>
     <row r="4">
@@ -11831,28 +11831,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>182.8696822663768</v>
+        <v>241.3452069005179</v>
       </c>
       <c r="AB4" t="n">
-        <v>250.2103669177385</v>
+        <v>330.219159480207</v>
       </c>
       <c r="AC4" t="n">
-        <v>226.3306406716378</v>
+        <v>298.7035063650154</v>
       </c>
       <c r="AD4" t="n">
-        <v>182869.6822663768</v>
+        <v>241345.2069005179</v>
       </c>
       <c r="AE4" t="n">
-        <v>250210.3669177385</v>
+        <v>330219.159480207</v>
       </c>
       <c r="AF4" t="n">
         <v>1.402897169783908e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.41927083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>226330.6406716378</v>
+        <v>298703.5063650154</v>
       </c>
     </row>
     <row r="5">
@@ -11937,28 +11937,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>166.9032575637683</v>
+        <v>225.4461020056138</v>
       </c>
       <c r="AB5" t="n">
-        <v>228.3644002506959</v>
+        <v>308.4653027440058</v>
       </c>
       <c r="AC5" t="n">
-        <v>206.5696224022841</v>
+        <v>279.0258071839806</v>
       </c>
       <c r="AD5" t="n">
-        <v>166903.2575637683</v>
+        <v>225446.1020056138</v>
       </c>
       <c r="AE5" t="n">
-        <v>228364.4002506959</v>
+        <v>308465.3027440058</v>
       </c>
       <c r="AF5" t="n">
         <v>1.478455393520976e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.83984375</v>
       </c>
       <c r="AH5" t="n">
-        <v>206569.6224022841</v>
+        <v>279025.8071839807</v>
       </c>
     </row>
     <row r="6">
@@ -12043,28 +12043,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>162.9828851985359</v>
+        <v>211.7297402746868</v>
       </c>
       <c r="AB6" t="n">
-        <v>223.0003738259655</v>
+        <v>289.6979715005887</v>
       </c>
       <c r="AC6" t="n">
-        <v>201.7175311310698</v>
+        <v>262.0496036943145</v>
       </c>
       <c r="AD6" t="n">
-        <v>162982.8851985359</v>
+        <v>211729.7402746868</v>
       </c>
       <c r="AE6" t="n">
-        <v>223000.3738259654</v>
+        <v>289697.9715005887</v>
       </c>
       <c r="AF6" t="n">
         <v>1.527752827444541e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.48828125</v>
       </c>
       <c r="AH6" t="n">
-        <v>201717.5311310698</v>
+        <v>262049.6036943145</v>
       </c>
     </row>
     <row r="7">
@@ -12149,28 +12149,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>160.8558256975061</v>
+        <v>209.602680773657</v>
       </c>
       <c r="AB7" t="n">
-        <v>220.0900371774156</v>
+        <v>286.7876348520388</v>
       </c>
       <c r="AC7" t="n">
-        <v>199.0849529275735</v>
+        <v>259.4170254908182</v>
       </c>
       <c r="AD7" t="n">
-        <v>160855.8256975061</v>
+        <v>209602.680773657</v>
       </c>
       <c r="AE7" t="n">
-        <v>220090.0371774156</v>
+        <v>286787.6348520388</v>
       </c>
       <c r="AF7" t="n">
         <v>1.554259735250672e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.3125</v>
       </c>
       <c r="AH7" t="n">
-        <v>199084.9529275735</v>
+        <v>259417.0254908181</v>
       </c>
     </row>
     <row r="8">
@@ -12255,28 +12255,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>158.0717487592318</v>
+        <v>206.8186038353827</v>
       </c>
       <c r="AB8" t="n">
-        <v>216.2807402856646</v>
+        <v>282.9783379602879</v>
       </c>
       <c r="AC8" t="n">
-        <v>195.6392099847882</v>
+        <v>255.9712825480329</v>
       </c>
       <c r="AD8" t="n">
-        <v>158071.7487592318</v>
+        <v>206818.6038353827</v>
       </c>
       <c r="AE8" t="n">
-        <v>216280.7402856646</v>
+        <v>282978.3379602879</v>
       </c>
       <c r="AF8" t="n">
         <v>1.586919592872526e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.09765625</v>
       </c>
       <c r="AH8" t="n">
-        <v>195639.2099847882</v>
+        <v>255971.2825480329</v>
       </c>
     </row>
     <row r="9">
@@ -12361,19 +12361,19 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>146.5634265147357</v>
+        <v>205.0721055378004</v>
       </c>
       <c r="AB9" t="n">
-        <v>200.5345460794079</v>
+        <v>280.58870193947</v>
       </c>
       <c r="AC9" t="n">
-        <v>181.3958104536493</v>
+        <v>253.8097100351659</v>
       </c>
       <c r="AD9" t="n">
-        <v>146563.4265147356</v>
+        <v>205072.1055378004</v>
       </c>
       <c r="AE9" t="n">
-        <v>200534.5460794079</v>
+        <v>280588.70193947</v>
       </c>
       <c r="AF9" t="n">
         <v>1.602425026408145e-05</v>
@@ -12382,7 +12382,7 @@
         <v>10</v>
       </c>
       <c r="AH9" t="n">
-        <v>181395.8104536493</v>
+        <v>253809.7100351659</v>
       </c>
     </row>
     <row r="10">
@@ -12467,28 +12467,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>144.8623264190212</v>
+        <v>193.6765013028765</v>
       </c>
       <c r="AB10" t="n">
-        <v>198.207025881213</v>
+        <v>264.9967334866776</v>
       </c>
       <c r="AC10" t="n">
-        <v>179.2904255164742</v>
+        <v>239.7058171680379</v>
       </c>
       <c r="AD10" t="n">
-        <v>144862.3264190212</v>
+        <v>193676.5013028765</v>
       </c>
       <c r="AE10" t="n">
-        <v>198207.025881213</v>
+        <v>264996.7334866776</v>
       </c>
       <c r="AF10" t="n">
         <v>1.618841096516492e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.895833333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>179290.4255164742</v>
+        <v>239705.8171680379</v>
       </c>
     </row>
     <row r="11">
@@ -12573,28 +12573,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>143.7000587386034</v>
+        <v>192.5142336224587</v>
       </c>
       <c r="AB11" t="n">
-        <v>196.6167599652349</v>
+        <v>263.4064675706996</v>
       </c>
       <c r="AC11" t="n">
-        <v>177.8519323475643</v>
+        <v>238.2673239991281</v>
       </c>
       <c r="AD11" t="n">
-        <v>143700.0587386034</v>
+        <v>192514.2336224587</v>
       </c>
       <c r="AE11" t="n">
-        <v>196616.7599652349</v>
+        <v>263406.4675706996</v>
       </c>
       <c r="AF11" t="n">
         <v>1.624920210934425e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.86328125</v>
       </c>
       <c r="AH11" t="n">
-        <v>177851.9323475643</v>
+        <v>238267.3239991281</v>
       </c>
     </row>
     <row r="12">
@@ -12679,28 +12679,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>143.1805965241855</v>
+        <v>191.9947714080408</v>
       </c>
       <c r="AB12" t="n">
-        <v>195.9060088464132</v>
+        <v>262.6957164518778</v>
       </c>
       <c r="AC12" t="n">
-        <v>177.2090143179772</v>
+        <v>237.624405969541</v>
       </c>
       <c r="AD12" t="n">
-        <v>143180.5965241855</v>
+        <v>191994.7714080408</v>
       </c>
       <c r="AE12" t="n">
-        <v>195906.0088464132</v>
+        <v>262695.7164518778</v>
       </c>
       <c r="AF12" t="n">
         <v>1.63279598669855e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.811197916666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>177209.0143179772</v>
+        <v>237624.405969541</v>
       </c>
     </row>
   </sheetData>
@@ -12976,28 +12976,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.8527186278065</v>
+        <v>274.4909125522515</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.3932594412062</v>
+        <v>375.5705762383947</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.2511659086676</v>
+        <v>339.7266475588159</v>
       </c>
       <c r="AD2" t="n">
-        <v>207852.7186278065</v>
+        <v>274490.9125522515</v>
       </c>
       <c r="AE2" t="n">
-        <v>284393.2594412062</v>
+        <v>375570.5762383947</v>
       </c>
       <c r="AF2" t="n">
         <v>1.442955403620868e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.84114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>257251.1659086676</v>
+        <v>339726.6475588159</v>
       </c>
     </row>
     <row r="3">
@@ -13082,28 +13082,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.7092256233962</v>
+        <v>209.7935121398509</v>
       </c>
       <c r="AB3" t="n">
-        <v>208.943499553394</v>
+        <v>287.048738746151</v>
       </c>
       <c r="AC3" t="n">
-        <v>189.0022252101211</v>
+        <v>259.6532099957379</v>
       </c>
       <c r="AD3" t="n">
-        <v>152709.2256233961</v>
+        <v>209793.5121398509</v>
       </c>
       <c r="AE3" t="n">
-        <v>208943.499553394</v>
+        <v>287048.738746151</v>
       </c>
       <c r="AF3" t="n">
         <v>1.824765287791445e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.94401041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>189002.2252101211</v>
+        <v>259653.2099957379</v>
       </c>
     </row>
     <row r="4">
@@ -13188,28 +13188,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>145.7364620331479</v>
+        <v>193.2678521714732</v>
       </c>
       <c r="AB4" t="n">
-        <v>199.403056792602</v>
+        <v>264.4376017167645</v>
       </c>
       <c r="AC4" t="n">
-        <v>180.3723089163205</v>
+        <v>239.2000481494988</v>
       </c>
       <c r="AD4" t="n">
-        <v>145736.4620331479</v>
+        <v>193267.8521714731</v>
       </c>
       <c r="AE4" t="n">
-        <v>199403.056792602</v>
+        <v>264437.6017167645</v>
       </c>
       <c r="AF4" t="n">
         <v>1.962221755252405e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.18229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>180372.3089163206</v>
+        <v>239200.0481494988</v>
       </c>
     </row>
     <row r="5">
@@ -13294,28 +13294,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>132.5461601502574</v>
+        <v>180.1448700962871</v>
       </c>
       <c r="AB5" t="n">
-        <v>181.3555038413908</v>
+        <v>246.4821586963948</v>
       </c>
       <c r="AC5" t="n">
-        <v>164.0471890888676</v>
+        <v>222.9582474103648</v>
       </c>
       <c r="AD5" t="n">
-        <v>132546.1601502574</v>
+        <v>180144.8700962871</v>
       </c>
       <c r="AE5" t="n">
-        <v>181355.5038413908</v>
+        <v>246482.1586963948</v>
       </c>
       <c r="AF5" t="n">
         <v>2.02472149280106e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.86328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>164047.1890888675</v>
+        <v>222958.2474103648</v>
       </c>
     </row>
     <row r="6">
@@ -13400,28 +13400,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>131.2075895400769</v>
+        <v>178.8062994861066</v>
       </c>
       <c r="AB6" t="n">
-        <v>179.5240124789752</v>
+        <v>244.6506673339792</v>
       </c>
       <c r="AC6" t="n">
-        <v>162.3904926915661</v>
+        <v>221.3015510130633</v>
       </c>
       <c r="AD6" t="n">
-        <v>131207.5895400769</v>
+        <v>178806.2994861066</v>
       </c>
       <c r="AE6" t="n">
-        <v>179524.0124789752</v>
+        <v>244650.6673339792</v>
       </c>
       <c r="AF6" t="n">
         <v>2.046843393033059e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.759114583333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>162390.4926915661</v>
+        <v>221301.5510130633</v>
       </c>
     </row>
     <row r="7">
@@ -13506,28 +13506,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>131.4095464991384</v>
+        <v>179.0082564451681</v>
       </c>
       <c r="AB7" t="n">
-        <v>179.8003389000752</v>
+        <v>244.9269937550792</v>
       </c>
       <c r="AC7" t="n">
-        <v>162.640446906863</v>
+        <v>221.5515052283602</v>
       </c>
       <c r="AD7" t="n">
-        <v>131409.5464991384</v>
+        <v>179008.2564451681</v>
       </c>
       <c r="AE7" t="n">
-        <v>179800.3389000752</v>
+        <v>244926.9937550792</v>
       </c>
       <c r="AF7" t="n">
         <v>2.046475206066645e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.759114583333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>162640.446906863</v>
+        <v>221551.5052283602</v>
       </c>
     </row>
   </sheetData>
@@ -13803,28 +13803,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.508790046291</v>
+        <v>231.8470704504667</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.1388694425764</v>
+        <v>317.2233901610467</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.2203527800665</v>
+        <v>286.9480350299949</v>
       </c>
       <c r="AD2" t="n">
-        <v>175508.790046291</v>
+        <v>231847.0704504667</v>
       </c>
       <c r="AE2" t="n">
-        <v>240138.8694425764</v>
+        <v>317223.3901610467</v>
       </c>
       <c r="AF2" t="n">
         <v>1.836042215771916e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.36979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>217220.3527800665</v>
+        <v>286948.0350299948</v>
       </c>
     </row>
     <row r="3">
@@ -13909,28 +13909,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.4131666450906</v>
+        <v>187.3505136806196</v>
       </c>
       <c r="AB3" t="n">
-        <v>192.1194891954479</v>
+        <v>256.3412381390328</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.7838747880852</v>
+        <v>231.8763901483056</v>
       </c>
       <c r="AD3" t="n">
-        <v>140413.1666450906</v>
+        <v>187350.5136806196</v>
       </c>
       <c r="AE3" t="n">
-        <v>192119.4891954479</v>
+        <v>256341.2381390329</v>
       </c>
       <c r="AF3" t="n">
         <v>2.194689183642691e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.3515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>173783.8747880852</v>
+        <v>231876.3901483056</v>
       </c>
     </row>
     <row r="4">
@@ -14015,28 +14015,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>126.069523605569</v>
+        <v>173.0741904488024</v>
       </c>
       <c r="AB4" t="n">
-        <v>172.4938839919139</v>
+        <v>236.8077428663403</v>
       </c>
       <c r="AC4" t="n">
-        <v>156.0313098004603</v>
+        <v>214.2071442489998</v>
       </c>
       <c r="AD4" t="n">
-        <v>126069.523605569</v>
+        <v>173074.1904488024</v>
       </c>
       <c r="AE4" t="n">
-        <v>172493.8839919139</v>
+        <v>236807.7428663403</v>
       </c>
       <c r="AF4" t="n">
         <v>2.311912317110182e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.82421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>156031.3098004603</v>
+        <v>214207.1442489998</v>
       </c>
     </row>
     <row r="5">
@@ -14121,28 +14121,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>126.1954825998413</v>
+        <v>173.2001494430747</v>
       </c>
       <c r="AB5" t="n">
-        <v>172.6662266447958</v>
+        <v>236.9800855192223</v>
       </c>
       <c r="AC5" t="n">
-        <v>156.1872043124357</v>
+        <v>214.3630387609752</v>
       </c>
       <c r="AD5" t="n">
-        <v>126195.4825998413</v>
+        <v>173200.1494430747</v>
       </c>
       <c r="AE5" t="n">
-        <v>172666.2266447958</v>
+        <v>236980.0855192223</v>
       </c>
       <c r="AF5" t="n">
         <v>2.310761018477912e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.830729166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>156187.2043124356</v>
+        <v>214363.0387609752</v>
       </c>
     </row>
   </sheetData>
@@ -25687,28 +25687,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.7607809643588</v>
+        <v>207.4951002437866</v>
       </c>
       <c r="AB2" t="n">
-        <v>207.6457957284744</v>
+        <v>283.9039501911808</v>
       </c>
       <c r="AC2" t="n">
-        <v>187.8283724169127</v>
+        <v>256.8085556467147</v>
       </c>
       <c r="AD2" t="n">
-        <v>151760.7809643588</v>
+        <v>207495.1002437866</v>
       </c>
       <c r="AE2" t="n">
-        <v>207645.7957284744</v>
+        <v>283903.9501911808</v>
       </c>
       <c r="AF2" t="n">
         <v>2.238266302296134e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.39322916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>187828.3724169127</v>
+        <v>256808.5556467147</v>
       </c>
     </row>
     <row r="3">
@@ -25793,19 +25793,19 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.4895432720641</v>
+        <v>178.2570169404156</v>
       </c>
       <c r="AB3" t="n">
-        <v>167.5955969620293</v>
+        <v>243.8991147223294</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.6005084099174</v>
+        <v>220.6217255278585</v>
       </c>
       <c r="AD3" t="n">
-        <v>122489.5432720641</v>
+        <v>178257.0169404155</v>
       </c>
       <c r="AE3" t="n">
-        <v>167595.5969620293</v>
+        <v>243899.1147223294</v>
       </c>
       <c r="AF3" t="n">
         <v>2.551318760071725e-05</v>
@@ -25814,7 +25814,7 @@
         <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>151600.5084099174</v>
+        <v>220621.7255278585</v>
       </c>
     </row>
     <row r="4">
@@ -25899,28 +25899,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.5266965361311</v>
+        <v>178.2941702044826</v>
       </c>
       <c r="AB4" t="n">
-        <v>167.6464316970122</v>
+        <v>243.9499494573122</v>
       </c>
       <c r="AC4" t="n">
-        <v>151.6464915491404</v>
+        <v>220.6677086670815</v>
       </c>
       <c r="AD4" t="n">
-        <v>122526.6965361311</v>
+        <v>178294.1702044826</v>
       </c>
       <c r="AE4" t="n">
-        <v>167646.4316970122</v>
+        <v>243949.9494573122</v>
       </c>
       <c r="AF4" t="n">
         <v>2.558723880787567e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.967447916666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>151646.4915491405</v>
+        <v>220667.7086670815</v>
       </c>
     </row>
   </sheetData>
@@ -26196,28 +26196,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.8103133842804</v>
+        <v>179.4824406786325</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.7709770147134</v>
+        <v>245.5757935428368</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.4728346470482</v>
+        <v>222.1383844749707</v>
       </c>
       <c r="AD2" t="n">
-        <v>124810.3133842804</v>
+        <v>179482.4406786325</v>
       </c>
       <c r="AE2" t="n">
-        <v>170770.9770147134</v>
+        <v>245575.7935428368</v>
       </c>
       <c r="AF2" t="n">
         <v>3.155155623928973e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.69010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>154472.8346470482</v>
+        <v>222138.3844749707</v>
       </c>
     </row>
   </sheetData>
@@ -26493,28 +26493,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>254.6561754454613</v>
+        <v>331.619656983202</v>
       </c>
       <c r="AB2" t="n">
-        <v>348.4318138818763</v>
+        <v>453.7366447111486</v>
       </c>
       <c r="AC2" t="n">
-        <v>315.1779705922162</v>
+        <v>410.4326561632964</v>
       </c>
       <c r="AD2" t="n">
-        <v>254656.1754454613</v>
+        <v>331619.656983202</v>
       </c>
       <c r="AE2" t="n">
-        <v>348431.8138818763</v>
+        <v>453736.6447111486</v>
       </c>
       <c r="AF2" t="n">
         <v>1.165917140739804e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>315177.9705922162</v>
+        <v>410432.6561632964</v>
       </c>
     </row>
     <row r="3">
@@ -26599,28 +26599,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>174.8758534629478</v>
+        <v>232.5984646162503</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.2728576860553</v>
+        <v>318.2514808078422</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.4369919701325</v>
+        <v>287.8780061483949</v>
       </c>
       <c r="AD3" t="n">
-        <v>174875.8534629479</v>
+        <v>232598.4646162502</v>
       </c>
       <c r="AE3" t="n">
-        <v>239272.8576860554</v>
+        <v>318251.4808078422</v>
       </c>
       <c r="AF3" t="n">
         <v>1.562109604017797e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.6015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>216436.9919701325</v>
+        <v>287878.0061483949</v>
       </c>
     </row>
     <row r="4">
@@ -26705,28 +26705,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>156.1684664631446</v>
+        <v>213.8569121976662</v>
       </c>
       <c r="AB4" t="n">
-        <v>213.6765854812706</v>
+        <v>292.6084619698096</v>
       </c>
       <c r="AC4" t="n">
-        <v>193.2835920599705</v>
+        <v>264.682321038053</v>
       </c>
       <c r="AD4" t="n">
-        <v>156168.4664631446</v>
+        <v>213856.9121976662</v>
       </c>
       <c r="AE4" t="n">
-        <v>213676.5854812706</v>
+        <v>292608.4619698097</v>
       </c>
       <c r="AF4" t="n">
         <v>1.701940600578038e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.65104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>193283.5920599705</v>
+        <v>264682.321038053</v>
       </c>
     </row>
     <row r="5">
@@ -26811,28 +26811,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>151.5896065859898</v>
+        <v>199.6244627393707</v>
       </c>
       <c r="AB5" t="n">
-        <v>207.4115873923096</v>
+        <v>273.1349967296238</v>
       </c>
       <c r="AC5" t="n">
-        <v>187.6165165956379</v>
+        <v>247.0673759892042</v>
       </c>
       <c r="AD5" t="n">
-        <v>151589.6065859898</v>
+        <v>199624.4627393707</v>
       </c>
       <c r="AE5" t="n">
-        <v>207411.5873923096</v>
+        <v>273134.9967296238</v>
       </c>
       <c r="AF5" t="n">
         <v>1.776045739507635e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.20182291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>187616.5165956379</v>
+        <v>247067.3759892042</v>
       </c>
     </row>
     <row r="6">
@@ -26917,28 +26917,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>138.9629873688175</v>
+        <v>196.6172676845582</v>
       </c>
       <c r="AB6" t="n">
-        <v>190.1352899322576</v>
+        <v>269.0204197875489</v>
       </c>
       <c r="AC6" t="n">
-        <v>171.989044717732</v>
+        <v>243.3454884956345</v>
       </c>
       <c r="AD6" t="n">
-        <v>138962.9873688175</v>
+        <v>196617.2676845582</v>
       </c>
       <c r="AE6" t="n">
-        <v>190135.2899322576</v>
+        <v>269020.4197875489</v>
       </c>
       <c r="AF6" t="n">
         <v>1.813822100712542e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.993489583333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>171989.0447177319</v>
+        <v>243345.4884956345</v>
       </c>
     </row>
     <row r="7">
@@ -27023,28 +27023,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>136.6148478577987</v>
+        <v>184.717023818884</v>
       </c>
       <c r="AB7" t="n">
-        <v>186.9224618606793</v>
+        <v>252.737981128835</v>
       </c>
       <c r="AC7" t="n">
-        <v>169.0828444480715</v>
+        <v>228.6170229299569</v>
       </c>
       <c r="AD7" t="n">
-        <v>136614.8478577987</v>
+        <v>184717.023818884</v>
       </c>
       <c r="AE7" t="n">
-        <v>186922.4618606793</v>
+        <v>252737.981128835</v>
       </c>
       <c r="AF7" t="n">
         <v>1.848981676395517e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.8046875</v>
       </c>
       <c r="AH7" t="n">
-        <v>169082.8444480715</v>
+        <v>228617.0229299569</v>
       </c>
     </row>
     <row r="8">
@@ -27129,28 +27129,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>135.8076090930986</v>
+        <v>183.9097850541839</v>
       </c>
       <c r="AB8" t="n">
-        <v>185.8179621699562</v>
+        <v>251.633481438112</v>
       </c>
       <c r="AC8" t="n">
-        <v>168.0837566576557</v>
+        <v>227.6179351395411</v>
       </c>
       <c r="AD8" t="n">
-        <v>135807.6090930986</v>
+        <v>183909.7850541839</v>
       </c>
       <c r="AE8" t="n">
-        <v>185817.9621699562</v>
+        <v>251633.481438112</v>
       </c>
       <c r="AF8" t="n">
         <v>1.853407941267721e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.778645833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>168083.7566576557</v>
+        <v>227617.9351395411</v>
       </c>
     </row>
     <row r="9">
@@ -27235,28 +27235,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>135.9836104641888</v>
+        <v>184.0857864252741</v>
       </c>
       <c r="AB9" t="n">
-        <v>186.0587750105143</v>
+        <v>251.87429427867</v>
       </c>
       <c r="AC9" t="n">
-        <v>168.3015866586939</v>
+        <v>227.8357651405793</v>
       </c>
       <c r="AD9" t="n">
-        <v>135983.6104641888</v>
+        <v>184085.7864252741</v>
       </c>
       <c r="AE9" t="n">
-        <v>186058.7750105143</v>
+        <v>251874.29427867</v>
       </c>
       <c r="AF9" t="n">
         <v>1.852795502103014e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.778645833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>168301.5866586939</v>
+        <v>227835.7651405793</v>
       </c>
     </row>
   </sheetData>
@@ -27532,28 +27532,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>331.5638620054912</v>
+        <v>419.1235013344261</v>
       </c>
       <c r="AB2" t="n">
-        <v>453.660303561144</v>
+        <v>573.4632649496531</v>
       </c>
       <c r="AC2" t="n">
-        <v>410.3636009055027</v>
+        <v>518.7327358036048</v>
       </c>
       <c r="AD2" t="n">
-        <v>331563.8620054912</v>
+        <v>419123.5013344261</v>
       </c>
       <c r="AE2" t="n">
-        <v>453660.303561144</v>
+        <v>573463.2649496531</v>
       </c>
       <c r="AF2" t="n">
         <v>8.975612114486198e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.2421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>410363.6009055027</v>
+        <v>518732.7358036048</v>
       </c>
     </row>
     <row r="3">
@@ -27638,28 +27638,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>202.574363470523</v>
+        <v>270.6944996024642</v>
       </c>
       <c r="AB3" t="n">
-        <v>277.1711810504199</v>
+        <v>370.3761565545769</v>
       </c>
       <c r="AC3" t="n">
-        <v>250.7183525432449</v>
+        <v>335.0279759992079</v>
       </c>
       <c r="AD3" t="n">
-        <v>202574.363470523</v>
+        <v>270694.4996024642</v>
       </c>
       <c r="AE3" t="n">
-        <v>277171.1810504199</v>
+        <v>370376.1565545769</v>
       </c>
       <c r="AF3" t="n">
         <v>1.304233261935976e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.55859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>250718.352543245</v>
+        <v>335027.9759992079</v>
       </c>
     </row>
     <row r="4">
@@ -27744,28 +27744,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>179.7087366414224</v>
+        <v>238.0252241726959</v>
       </c>
       <c r="AB4" t="n">
-        <v>245.885421662599</v>
+        <v>325.6766126447023</v>
       </c>
       <c r="AC4" t="n">
-        <v>222.4184621215487</v>
+        <v>294.5944938239854</v>
       </c>
       <c r="AD4" t="n">
-        <v>179708.7366414224</v>
+        <v>238025.2241726959</v>
       </c>
       <c r="AE4" t="n">
-        <v>245885.4216625991</v>
+        <v>325676.6126447024</v>
       </c>
       <c r="AF4" t="n">
         <v>1.449776930156415e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.29557291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>222418.4621215487</v>
+        <v>294594.4938239854</v>
       </c>
     </row>
     <row r="5">
@@ -27850,28 +27850,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>163.9611594450907</v>
+        <v>222.3449667840686</v>
       </c>
       <c r="AB5" t="n">
-        <v>224.3388918085148</v>
+        <v>304.2221927214595</v>
       </c>
       <c r="AC5" t="n">
-        <v>202.9283028359869</v>
+        <v>275.1876536267425</v>
       </c>
       <c r="AD5" t="n">
-        <v>163961.1594450907</v>
+        <v>222344.9667840686</v>
       </c>
       <c r="AE5" t="n">
-        <v>224338.8918085148</v>
+        <v>304222.1927214595</v>
       </c>
       <c r="AF5" t="n">
         <v>1.527856353964961e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.71614583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>202928.3028359869</v>
+        <v>275187.6536267425</v>
       </c>
     </row>
     <row r="6">
@@ -27956,28 +27956,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>160.3093142996165</v>
+        <v>208.923638456711</v>
       </c>
       <c r="AB6" t="n">
-        <v>219.3422761724421</v>
+        <v>285.8585391967611</v>
       </c>
       <c r="AC6" t="n">
-        <v>198.4085571834253</v>
+        <v>258.5766014208859</v>
       </c>
       <c r="AD6" t="n">
-        <v>160309.3142996165</v>
+        <v>208923.638456711</v>
       </c>
       <c r="AE6" t="n">
-        <v>219342.2761724421</v>
+        <v>285858.5391967611</v>
       </c>
       <c r="AF6" t="n">
         <v>1.576932692834314e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.38411458333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>198408.5571834253</v>
+        <v>258576.6014208859</v>
       </c>
     </row>
     <row r="7">
@@ -28062,28 +28062,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>157.817738402622</v>
+        <v>206.4320625597165</v>
       </c>
       <c r="AB7" t="n">
-        <v>215.9331921096051</v>
+        <v>282.4494551339241</v>
       </c>
       <c r="AC7" t="n">
-        <v>195.3248313188648</v>
+        <v>255.4928755563254</v>
       </c>
       <c r="AD7" t="n">
-        <v>157817.738402622</v>
+        <v>206432.0625597165</v>
       </c>
       <c r="AE7" t="n">
-        <v>215933.1921096051</v>
+        <v>282449.4551339241</v>
       </c>
       <c r="AF7" t="n">
         <v>1.60495475408519e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.20182291666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>195324.8313188648</v>
+        <v>255492.8755563254</v>
       </c>
     </row>
     <row r="8">
@@ -28168,28 +28168,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>155.7990066507757</v>
+        <v>204.4133308078702</v>
       </c>
       <c r="AB8" t="n">
-        <v>213.1710742665711</v>
+        <v>279.6873372908901</v>
       </c>
       <c r="AC8" t="n">
-        <v>192.8263261261123</v>
+        <v>252.994370363573</v>
       </c>
       <c r="AD8" t="n">
-        <v>155799.0066507757</v>
+        <v>204413.3308078702</v>
       </c>
       <c r="AE8" t="n">
-        <v>213171.0742665711</v>
+        <v>279687.33729089</v>
       </c>
       <c r="AF8" t="n">
         <v>1.628499322604777e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.05859375</v>
       </c>
       <c r="AH8" t="n">
-        <v>192826.3261261123</v>
+        <v>252994.370363573</v>
       </c>
     </row>
     <row r="9">
@@ -28274,28 +28274,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>143.7512281589117</v>
+        <v>202.1008700791089</v>
       </c>
       <c r="AB9" t="n">
-        <v>196.6867722235362</v>
+        <v>276.5233265032332</v>
       </c>
       <c r="AC9" t="n">
-        <v>177.9152627341962</v>
+        <v>250.132328324772</v>
       </c>
       <c r="AD9" t="n">
-        <v>143751.2281589117</v>
+        <v>202100.8700791089</v>
       </c>
       <c r="AE9" t="n">
-        <v>196686.7722235362</v>
+        <v>276523.3265032332</v>
       </c>
       <c r="AF9" t="n">
         <v>1.652396053474016e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.908854166666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>177915.2627341962</v>
+        <v>250132.328324772</v>
       </c>
     </row>
     <row r="10">
@@ -28380,28 +28380,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>142.7161243388908</v>
+        <v>191.3977683036898</v>
       </c>
       <c r="AB10" t="n">
-        <v>195.2704975114267</v>
+        <v>261.8788704665872</v>
       </c>
       <c r="AC10" t="n">
-        <v>176.6341552928559</v>
+        <v>236.8855186186356</v>
       </c>
       <c r="AD10" t="n">
-        <v>142716.1243388908</v>
+        <v>191397.7683036898</v>
       </c>
       <c r="AE10" t="n">
-        <v>195270.4975114267</v>
+        <v>261878.8704665871</v>
       </c>
       <c r="AF10" t="n">
         <v>1.65896136584967e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.869791666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>176634.1552928559</v>
+        <v>236885.5186186356</v>
       </c>
     </row>
     <row r="11">
@@ -28486,28 +28486,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>141.7929907553225</v>
+        <v>190.4746347201215</v>
       </c>
       <c r="AB11" t="n">
-        <v>194.0074254166097</v>
+        <v>260.6157983717702</v>
       </c>
       <c r="AC11" t="n">
-        <v>175.4916290260351</v>
+        <v>235.7429923518148</v>
       </c>
       <c r="AD11" t="n">
-        <v>141792.9907553225</v>
+        <v>190474.6347201215</v>
       </c>
       <c r="AE11" t="n">
-        <v>194007.4254166097</v>
+        <v>260615.7983717702</v>
       </c>
       <c r="AF11" t="n">
         <v>1.668293668115447e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.817708333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>175491.6290260351</v>
+        <v>235742.9923518148</v>
       </c>
     </row>
     <row r="12">
@@ -28592,28 +28592,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>141.9948423246234</v>
+        <v>190.6764862894224</v>
       </c>
       <c r="AB12" t="n">
-        <v>194.2836076387899</v>
+        <v>260.8919805939503</v>
       </c>
       <c r="AC12" t="n">
-        <v>175.7414528045546</v>
+        <v>235.9928161303343</v>
       </c>
       <c r="AD12" t="n">
-        <v>141994.8423246235</v>
+        <v>190676.4862894224</v>
       </c>
       <c r="AE12" t="n">
-        <v>194283.6076387899</v>
+        <v>260891.9805939503</v>
       </c>
       <c r="AF12" t="n">
         <v>1.667941505765795e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.817708333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>175741.4528045546</v>
+        <v>235992.8161303343</v>
       </c>
     </row>
   </sheetData>
@@ -28889,28 +28889,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.1405788497839</v>
+        <v>185.3185949962061</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.4323254962133</v>
+        <v>253.5610773530939</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.3075561857555</v>
+        <v>229.3615640057957</v>
       </c>
       <c r="AD2" t="n">
-        <v>131140.5788497839</v>
+        <v>185318.5949962061</v>
       </c>
       <c r="AE2" t="n">
-        <v>179432.3254962133</v>
+        <v>253561.0773530939</v>
       </c>
       <c r="AF2" t="n">
         <v>3.434446281078244e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.56901041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>162307.5561857555</v>
+        <v>229361.5640057957</v>
       </c>
     </row>
   </sheetData>
@@ -29186,28 +29186,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.8954583821508</v>
+        <v>248.9630479869708</v>
       </c>
       <c r="AB2" t="n">
-        <v>250.2456349365024</v>
+        <v>340.6422257301163</v>
       </c>
       <c r="AC2" t="n">
-        <v>226.3625427601899</v>
+        <v>308.131809800902</v>
       </c>
       <c r="AD2" t="n">
-        <v>182895.4583821508</v>
+        <v>248963.0479869708</v>
       </c>
       <c r="AE2" t="n">
-        <v>250245.6349365024</v>
+        <v>340642.2257301162</v>
       </c>
       <c r="AF2" t="n">
         <v>1.684546465920609e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.85807291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>226362.5427601899</v>
+        <v>308131.809800902</v>
       </c>
     </row>
     <row r="3">
@@ -29292,28 +29292,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.4228315151895</v>
+        <v>191.6725362365423</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.6056895646439</v>
+        <v>262.2548200742214</v>
       </c>
       <c r="AC3" t="n">
-        <v>178.7464798939775</v>
+        <v>237.2255881233661</v>
       </c>
       <c r="AD3" t="n">
-        <v>144422.8315151895</v>
+        <v>191672.5362365423</v>
       </c>
       <c r="AE3" t="n">
-        <v>197605.689564644</v>
+        <v>262254.8200742214</v>
       </c>
       <c r="AF3" t="n">
         <v>2.058623972394743e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.52083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>178746.4798939775</v>
+        <v>237225.5881233661</v>
       </c>
     </row>
     <row r="4">
@@ -29398,28 +29398,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>129.1552798899245</v>
+        <v>185.7455962154493</v>
       </c>
       <c r="AB4" t="n">
-        <v>176.7159518741263</v>
+        <v>254.1453192592265</v>
       </c>
       <c r="AC4" t="n">
-        <v>159.8504294497053</v>
+        <v>229.8900466843957</v>
       </c>
       <c r="AD4" t="n">
-        <v>129155.2798899245</v>
+        <v>185745.5962154493</v>
       </c>
       <c r="AE4" t="n">
-        <v>176715.9518741264</v>
+        <v>254145.3192592265</v>
       </c>
       <c r="AF4" t="n">
         <v>2.182484747617369e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>159850.4294497053</v>
+        <v>229890.0466843957</v>
       </c>
     </row>
     <row r="5">
@@ -29504,28 +29504,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>127.6925851802944</v>
+        <v>174.9081244828664</v>
       </c>
       <c r="AB5" t="n">
-        <v>174.7146284428752</v>
+        <v>239.3170123192049</v>
       </c>
       <c r="AC5" t="n">
-        <v>158.040109517857</v>
+        <v>216.4769325470656</v>
       </c>
       <c r="AD5" t="n">
-        <v>127692.5851802944</v>
+        <v>174908.1244828664</v>
       </c>
       <c r="AE5" t="n">
-        <v>174714.6284428751</v>
+        <v>239317.0123192049</v>
       </c>
       <c r="AF5" t="n">
         <v>2.215288057950302e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.778645833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>158040.109517857</v>
+        <v>216476.9325470655</v>
       </c>
     </row>
   </sheetData>
@@ -29801,28 +29801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.9637735574705</v>
+        <v>292.7810893936242</v>
       </c>
       <c r="AB2" t="n">
-        <v>309.1736037993128</v>
+        <v>400.5960030984147</v>
       </c>
       <c r="AC2" t="n">
-        <v>279.6665089806762</v>
+        <v>362.3636828027227</v>
       </c>
       <c r="AD2" t="n">
-        <v>225963.7735574705</v>
+        <v>292781.0893936242</v>
       </c>
       <c r="AE2" t="n">
-        <v>309173.6037993128</v>
+        <v>400596.0030984146</v>
       </c>
       <c r="AF2" t="n">
         <v>1.341228974816642e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.38151041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>279666.5089806762</v>
+        <v>362363.6828027227</v>
       </c>
     </row>
     <row r="3">
@@ -29907,28 +29907,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.5089464831479</v>
+        <v>214.2505318398346</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.8248864344142</v>
+        <v>293.1470297294973</v>
       </c>
       <c r="AC3" t="n">
-        <v>206.0815990274157</v>
+        <v>265.1694886466407</v>
       </c>
       <c r="AD3" t="n">
-        <v>166508.9464831479</v>
+        <v>214250.5318398346</v>
       </c>
       <c r="AE3" t="n">
-        <v>227824.8864344142</v>
+        <v>293147.0297294973</v>
       </c>
       <c r="AF3" t="n">
         <v>1.727941355540142e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.15885416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>206081.5990274157</v>
+        <v>265169.4886466407</v>
       </c>
     </row>
     <row r="4">
@@ -30013,28 +30013,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>149.5852610564312</v>
+        <v>197.292680994337</v>
       </c>
       <c r="AB4" t="n">
-        <v>204.6691534132848</v>
+        <v>269.94455007512</v>
       </c>
       <c r="AC4" t="n">
-        <v>185.1358166665401</v>
+        <v>244.1814210855852</v>
       </c>
       <c r="AD4" t="n">
-        <v>149585.2610564312</v>
+        <v>197292.680994337</v>
       </c>
       <c r="AE4" t="n">
-        <v>204669.1534132848</v>
+        <v>269944.5500751201</v>
       </c>
       <c r="AF4" t="n">
         <v>1.857635457180059e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.38411458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>185135.8166665401</v>
+        <v>244181.4210855852</v>
       </c>
     </row>
     <row r="5">
@@ -30119,28 +30119,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>135.6066928847966</v>
+        <v>192.8680497419674</v>
       </c>
       <c r="AB5" t="n">
-        <v>185.5430597499602</v>
+        <v>263.8905743946767</v>
       </c>
       <c r="AC5" t="n">
-        <v>167.835090538796</v>
+        <v>238.7052283472732</v>
       </c>
       <c r="AD5" t="n">
-        <v>135606.6928847966</v>
+        <v>192868.0497419674</v>
       </c>
       <c r="AE5" t="n">
-        <v>185543.0597499602</v>
+        <v>263890.5743946767</v>
       </c>
       <c r="AF5" t="n">
         <v>1.935961451866204e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.9609375</v>
       </c>
       <c r="AH5" t="n">
-        <v>167835.090538796</v>
+        <v>238705.2283472732</v>
       </c>
     </row>
     <row r="6">
@@ -30225,28 +30225,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>132.8455970651032</v>
+        <v>180.6203368107135</v>
       </c>
       <c r="AB6" t="n">
-        <v>181.7652066385068</v>
+        <v>247.1327132311836</v>
       </c>
       <c r="AC6" t="n">
-        <v>164.4177904260484</v>
+        <v>223.5467139334127</v>
       </c>
       <c r="AD6" t="n">
-        <v>132845.5970651032</v>
+        <v>180620.3368107135</v>
       </c>
       <c r="AE6" t="n">
-        <v>181765.2066385068</v>
+        <v>247132.7132311836</v>
       </c>
       <c r="AF6" t="n">
         <v>1.975183697314183e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.765625</v>
       </c>
       <c r="AH6" t="n">
-        <v>164417.7904260485</v>
+        <v>223546.7139334127</v>
       </c>
     </row>
     <row r="7">
@@ -30331,28 +30331,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>132.7620436668204</v>
+        <v>180.5367834124308</v>
       </c>
       <c r="AB7" t="n">
-        <v>181.6508851928607</v>
+        <v>247.0183917855374</v>
       </c>
       <c r="AC7" t="n">
-        <v>164.3143796587236</v>
+        <v>223.4433031660878</v>
       </c>
       <c r="AD7" t="n">
-        <v>132762.0436668204</v>
+        <v>180536.7834124308</v>
       </c>
       <c r="AE7" t="n">
-        <v>181650.8851928607</v>
+        <v>247018.3917855374</v>
       </c>
       <c r="AF7" t="n">
         <v>1.974265351688134e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.765625</v>
       </c>
       <c r="AH7" t="n">
-        <v>164314.3796587236</v>
+        <v>223443.3031660878</v>
       </c>
     </row>
   </sheetData>
